--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1051.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1051.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.433139949908907</v>
+        <v>1.383153915405273</v>
       </c>
       <c r="B1">
-        <v>2.375835375439381</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>1.905412735110086</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>1.775862469473221</v>
+        <v>1.300832390785217</v>
       </c>
       <c r="E1">
-        <v>1.561154523087435</v>
+        <v>0.8646432161331177</v>
       </c>
     </row>
   </sheetData>
